--- a/public/data/chassis_no_for_shipping_quantity.xlsx
+++ b/public/data/chassis_no_for_shipping_quantity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/web/mgm_software/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF9D36-9E88-7D46-8883-46ACC627FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1E3012-1537-0C48-87AE-7E5B0B5335E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B9EF4A7-50F7-A048-A944-E45D573EFFC9}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0E41AB-A488-3B4D-AD86-197560E3D2B4}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
